--- a/data_year/zb/资源和环境/森林病虫鼠害防治.xlsx
+++ b/data_year/zb/资源和环境/森林病虫鼠害防治.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,678 +498,457 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.787441</v>
+        <v>129.0648</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>69.38801284316099</v>
       </c>
       <c r="D2" t="n">
-        <v>56.7132</v>
+        <v>89.55549999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>944.83724</v>
+        <v>1164.243</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>69.7759316569</v>
       </c>
       <c r="G2" t="n">
-        <v>639.5228</v>
+        <v>812.3614</v>
       </c>
       <c r="H2" t="n">
-        <v>744.032877</v>
+        <v>852.3175</v>
       </c>
       <c r="I2" t="n">
-        <v>67</v>
+        <v>73.76328656867889</v>
       </c>
       <c r="J2" t="n">
-        <v>494.854</v>
+        <v>628.6974</v>
       </c>
       <c r="K2" t="n">
-        <v>125.016924</v>
+        <v>182.8607</v>
       </c>
       <c r="L2" t="n">
-        <v>70.3550136939859</v>
+        <v>51.464584790499</v>
       </c>
       <c r="M2" t="n">
-        <v>87.955674</v>
+        <v>94.10850000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.2022</v>
+        <v>119.7227</v>
       </c>
       <c r="C3" t="n">
-        <v>69.7768101879208</v>
+        <v>66.17583799897599</v>
       </c>
       <c r="D3" t="n">
-        <v>70.615667</v>
+        <v>79.22750000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>961.0281333333</v>
+        <v>1168.1424</v>
       </c>
       <c r="F3" t="n">
-        <v>66.67332392350001</v>
+        <v>62.3637494881</v>
       </c>
       <c r="G3" t="n">
-        <v>640.7494003332999</v>
+        <v>728.4974</v>
       </c>
       <c r="H3" t="n">
-        <v>726.0936666667</v>
+        <v>845.9102</v>
       </c>
       <c r="I3" t="n">
-        <v>68.65660123739779</v>
+        <v>64.6139389263778</v>
       </c>
       <c r="J3" t="n">
-        <v>498.5112333333</v>
+        <v>546.5759</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7323666667</v>
+        <v>202.5095</v>
       </c>
       <c r="L3" t="n">
-        <v>53.5565935047885</v>
+        <v>50.7107073989121</v>
       </c>
       <c r="M3" t="n">
-        <v>71.6225</v>
+        <v>102.694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.8669</v>
-      </c>
-      <c r="C4" t="n">
-        <v>69.12750837851139</v>
-      </c>
+        <v>131.1633</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>71.8006</v>
+        <v>84.255</v>
       </c>
       <c r="E4" t="n">
-        <v>1100.6671</v>
+        <v>1176.8988</v>
       </c>
       <c r="F4" t="n">
-        <v>66.8202523816</v>
+        <v>66.49618471869999</v>
       </c>
       <c r="G4" t="n">
-        <v>735.4682</v>
+        <v>782.5928</v>
       </c>
       <c r="H4" t="n">
-        <v>829.8667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67.1434179903131</v>
-      </c>
+        <v>846.2864</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>557.2008</v>
+        <v>572.9317</v>
       </c>
       <c r="K4" t="n">
-        <v>166.9335</v>
-      </c>
-      <c r="L4" t="n">
-        <v>63.7779714676802</v>
-      </c>
+        <v>199.4491</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>106.4668</v>
+        <v>125.4061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.9467066667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>77.4048152608526</v>
-      </c>
+        <v>139.1718978655</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>85.8780933333</v>
+        <v>89.8786802616</v>
       </c>
       <c r="E5" t="n">
-        <v>1209.6831853333</v>
+        <v>1223.0451927045</v>
       </c>
       <c r="F5" t="n">
-        <v>66.23253452199999</v>
+        <v>62.6984907523</v>
       </c>
       <c r="G5" t="n">
-        <v>801.2038333333001</v>
+        <v>766.830877044</v>
       </c>
       <c r="H5" t="n">
-        <v>887.717012</v>
-      </c>
-      <c r="I5" t="n">
-        <v>68.0995030129414</v>
-      </c>
+        <v>847.4599710595</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>604.5308733333</v>
+        <v>589.558889406</v>
       </c>
       <c r="K5" t="n">
-        <v>211.0194666667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>52.5045714581783</v>
-      </c>
+        <v>224.2529890193</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>110.7948666667</v>
+        <v>82.966239343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.8315</v>
-      </c>
-      <c r="C6" t="n">
-        <v>77.4441253714395</v>
-      </c>
+        <v>137.2777596822</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>90.4791333333</v>
+        <v>86.7109407259</v>
       </c>
       <c r="E6" t="n">
-        <v>1141.8377333333</v>
+        <v>1206.4467423188</v>
       </c>
       <c r="F6" t="n">
-        <v>68.65759267839999</v>
+        <v>65.2688019452</v>
       </c>
       <c r="G6" t="n">
-        <v>783.9583</v>
+        <v>787.4333348184</v>
       </c>
       <c r="H6" t="n">
-        <v>843.1921333333</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69.9992536299754</v>
-      </c>
+        <v>841.2810460791</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>590.2282</v>
+        <v>599.5373505236</v>
       </c>
       <c r="K6" t="n">
-        <v>181.8141</v>
-      </c>
-      <c r="L6" t="n">
-        <v>56.7893065865995</v>
-      </c>
+        <v>211.6002491541</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>103.2509666667</v>
+        <v>96.02924773549999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.123621</v>
-      </c>
-      <c r="C7" t="n">
-        <v>79.3953171989568</v>
-      </c>
+        <v>139.0505933333</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>81.875326</v>
+        <v>97.7130439754</v>
       </c>
       <c r="E7" t="n">
-        <v>1141.971372</v>
+        <v>1218.3503866667</v>
       </c>
       <c r="F7" t="n">
-        <v>71.7516873969</v>
+        <v>72.0457121078</v>
       </c>
       <c r="G7" t="n">
-        <v>819.383729</v>
+        <v>877.7692120423</v>
       </c>
       <c r="H7" t="n">
-        <v>850.299279</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75.0494202171374</v>
-      </c>
+        <v>846.64068</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>638.144679</v>
+        <v>620.9237192428</v>
       </c>
       <c r="K7" t="n">
-        <v>188.548472</v>
-      </c>
-      <c r="L7" t="n">
-        <v>52.6992995201786</v>
-      </c>
+        <v>214.8220533333</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>99.363724</v>
+        <v>150.1882121574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.0648</v>
-      </c>
-      <c r="C8" t="n">
-        <v>69.38801284316099</v>
-      </c>
+        <v>138.8871454819</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>89.55549999999999</v>
+        <v>95.8952112094</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.243</v>
+        <v>1211.3429359353</v>
       </c>
       <c r="F8" t="n">
-        <v>69.7759316569</v>
+        <v>68.83412719010001</v>
       </c>
       <c r="G8" t="n">
-        <v>812.3614</v>
+        <v>833.8173372305</v>
       </c>
       <c r="H8" t="n">
-        <v>852.3175</v>
-      </c>
-      <c r="I8" t="n">
-        <v>73.76328656867889</v>
-      </c>
+        <v>857.0233841733</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>628.6974</v>
+        <v>615.0261534507</v>
       </c>
       <c r="K8" t="n">
-        <v>182.8607</v>
-      </c>
-      <c r="L8" t="n">
-        <v>51.464584790499</v>
-      </c>
+        <v>195.5134666133</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>94.10850000000001</v>
+        <v>112.1270461646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.7227</v>
-      </c>
-      <c r="C9" t="n">
-        <v>66.17583799897599</v>
-      </c>
+        <v>133.086296</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>79.22750000000001</v>
+        <v>101.708517</v>
       </c>
       <c r="E9" t="n">
-        <v>1168.1424</v>
+        <v>1253.124496</v>
       </c>
       <c r="F9" t="n">
-        <v>62.3637494881</v>
+        <v>76.78170964429999</v>
       </c>
       <c r="G9" t="n">
-        <v>728.4974</v>
+        <v>962.1704120000001</v>
       </c>
       <c r="H9" t="n">
-        <v>845.9102</v>
-      </c>
-      <c r="I9" t="n">
-        <v>64.6139389263778</v>
-      </c>
+        <v>905.965795</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>546.5759</v>
+        <v>714.402678</v>
       </c>
       <c r="K9" t="n">
-        <v>202.5095</v>
-      </c>
-      <c r="L9" t="n">
-        <v>50.7107073989121</v>
-      </c>
+        <v>194.19628</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>102.694</v>
+        <v>133.242726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.1633</v>
+        <v>176.8711</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>84.255</v>
+        <v>134.5403</v>
       </c>
       <c r="E10" t="n">
-        <v>1176.8988</v>
+        <v>1219.5249</v>
       </c>
       <c r="F10" t="n">
-        <v>66.49618471869999</v>
+        <v>77.8112771621</v>
       </c>
       <c r="G10" t="n">
-        <v>782.5928</v>
+        <v>948.9279</v>
       </c>
       <c r="H10" t="n">
-        <v>846.2864</v>
+        <v>840.4058</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>572.9317</v>
+        <v>665.249</v>
       </c>
       <c r="K10" t="n">
-        <v>199.4491</v>
+        <v>184.3971</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>125.4061</v>
+        <v>138.6034</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.1718978655</v>
+        <v>229.5391</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>89.8786802616</v>
+        <v>165.18</v>
       </c>
       <c r="E11" t="n">
-        <v>1223.0451927045</v>
+        <v>1236.7658</v>
       </c>
       <c r="F11" t="n">
-        <v>62.6984907523</v>
+        <v>82.09</v>
       </c>
       <c r="G11" t="n">
-        <v>766.830877044</v>
+        <v>1015.3145</v>
       </c>
       <c r="H11" t="n">
-        <v>847.4599710595</v>
+        <v>811.4644</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>589.558889406</v>
+        <v>701.3153</v>
       </c>
       <c r="K11" t="n">
-        <v>224.2529890193</v>
+        <v>178.0251</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>82.966239343</v>
+        <v>138.521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.2777596822</v>
+        <v>295.1416</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>86.7109407259</v>
+        <v>237.3697</v>
       </c>
       <c r="E12" t="n">
-        <v>1206.4467423188</v>
+        <v>1278.4471</v>
       </c>
       <c r="F12" t="n">
-        <v>65.2688019452</v>
+        <v>78.94</v>
       </c>
       <c r="G12" t="n">
-        <v>787.4333348184</v>
+        <v>1009.2402</v>
       </c>
       <c r="H12" t="n">
-        <v>841.2810460791</v>
+        <v>790.6231</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>599.5373505236</v>
+        <v>627.0728</v>
       </c>
       <c r="K12" t="n">
-        <v>211.6002491541</v>
+        <v>174.0039</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>96.02924773549999</v>
+        <v>133.0859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.0505933333</v>
+        <v>284.7363</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>97.7130439754</v>
+        <v>225.0505</v>
       </c>
       <c r="E13" t="n">
-        <v>1218.3503866667</v>
+        <v>1255.3676</v>
       </c>
       <c r="F13" t="n">
-        <v>72.0457121078</v>
+        <v>80.36</v>
       </c>
       <c r="G13" t="n">
-        <v>877.7692120423</v>
+        <v>1008.8125</v>
       </c>
       <c r="H13" t="n">
-        <v>846.64068</v>
+        <v>776.6511</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>620.9237192428</v>
+        <v>639.4059999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>214.8220533333</v>
+        <v>174.6653</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>150.1882121574</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>138.8871454819</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>95.8952112094</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1211.3429359353</v>
-      </c>
-      <c r="F14" t="n">
-        <v>68.83412719010001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>833.8173372305</v>
-      </c>
-      <c r="H14" t="n">
-        <v>857.0233841733</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>615.0261534507</v>
-      </c>
-      <c r="K14" t="n">
-        <v>195.5134666133</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>112.1270461646</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>133.086296</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>101.708517</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1253.124496</v>
-      </c>
-      <c r="F15" t="n">
-        <v>76.78170964429999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>962.1704120000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>905.965795</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>714.402678</v>
-      </c>
-      <c r="K15" t="n">
-        <v>194.19628</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>133.242726</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>176.8711</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>134.5403</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1219.5249</v>
-      </c>
-      <c r="F16" t="n">
-        <v>77.8112771621</v>
-      </c>
-      <c r="G16" t="n">
-        <v>948.9279</v>
-      </c>
-      <c r="H16" t="n">
-        <v>840.4058</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>665.249</v>
-      </c>
-      <c r="K16" t="n">
-        <v>184.3971</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>138.6034</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>229.5391</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>165.18</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1236.7658</v>
-      </c>
-      <c r="F17" t="n">
-        <v>82.09</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1015.3145</v>
-      </c>
-      <c r="H17" t="n">
-        <v>811.4644</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>701.3153</v>
-      </c>
-      <c r="K17" t="n">
-        <v>178.0251</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>138.521</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>295.1416</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>237.3697</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1278.4471</v>
-      </c>
-      <c r="F18" t="n">
-        <v>78.94</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1009.2402</v>
-      </c>
-      <c r="H18" t="n">
-        <v>790.6231</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>627.0728</v>
-      </c>
-      <c r="K18" t="n">
-        <v>174.0039</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>133.0859</v>
+        <v>130.3798</v>
       </c>
     </row>
   </sheetData>
